--- a/04_Results/FUBIC_neu_predict/ANN/ANNR2.2/OnlyPredict/PredictiontimeFinal/Summary_ann_bayesian_predictor_ANNR2.2.xlsx
+++ b/04_Results/FUBIC_neu_predict/ANN/ANNR2.2/OnlyPredict/PredictiontimeFinal/Summary_ann_bayesian_predictor_ANNR2.2.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="270" yWindow="570" windowWidth="28215" windowHeight="11955"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Estimator</t>
   </si>
@@ -99,22 +98,23 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -129,26 +129,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -436,21 +445,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="B1" s="1" t="n">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1">
         <v>0</v>
       </c>
     </row>
@@ -498,7 +506,7 @@
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2976</v>
       </c>
     </row>
@@ -506,7 +514,7 @@
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2688</v>
       </c>
     </row>
@@ -522,7 +530,6 @@
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
@@ -544,15 +551,15 @@
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.337804</v>
+      <c r="B13">
+        <v>0.33780399999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>127420.77825</v>
       </c>
     </row>
@@ -560,23 +567,23 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="n">
-        <v>437.36003</v>
+      <c r="B15">
+        <v>437.36002999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="n">
-        <v>69552.210747</v>
+      <c r="B16">
+        <v>69552.210747000005</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>125802.215838</v>
       </c>
     </row>
@@ -584,7 +591,7 @@
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-583.635851</v>
       </c>
     </row>
@@ -592,7 +599,7 @@
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1217.378244</v>
       </c>
     </row>
@@ -600,19 +607,19 @@
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
-        <v>300.252316</v>
+      <c r="B20">
+        <v>300.25231600000001</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B21" t="n">
-        <v>0.031173</v>
+      <c r="B21">
+        <v>0.29684700000000003</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>